--- a/shopify_us_gaap/dim_quickbooks_product.xlsx
+++ b/shopify_us_gaap/dim_quickbooks_product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32060" windowHeight="14510"/>
+    <workbookView windowWidth="18350" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="203">
   <si>
     <t>dim_quickbooks_product_sk</t>
   </si>
@@ -41,6 +41,9 @@
     <t>product_name</t>
   </si>
   <si>
+    <t>track_inventory</t>
+  </si>
+  <si>
     <t>has_ref</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>55 Blue Stand</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>f</t>
   </si>
   <si>
@@ -131,9 +137,6 @@
     <t>C1A Camera</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>C1_Camera</t>
   </si>
   <si>
@@ -405,6 +408,234 @@
   </si>
   <si>
     <t>T1_Tap_Ref</t>
+  </si>
+  <si>
+    <t>9cee57ba6baace3205155275b8b6da4a</t>
+  </si>
+  <si>
+    <t>f243efb6acb612a8216bb82dc3ca6954</t>
+  </si>
+  <si>
+    <t>Pro 75 OPS</t>
+  </si>
+  <si>
+    <t>Pro_75_OPS</t>
+  </si>
+  <si>
+    <t>a7e436ef631228679f55e28c7750802c</t>
+  </si>
+  <si>
+    <t>95971592c1c64535cf787557b6da7c23</t>
+  </si>
+  <si>
+    <t>Pro 75 Package Box</t>
+  </si>
+  <si>
+    <t>Pro_75_PBox</t>
+  </si>
+  <si>
+    <t>2679d163dc77730c74c4c010da01f7e3</t>
+  </si>
+  <si>
+    <t>73ad4e2681ff91757881722c5055ffc0</t>
+  </si>
+  <si>
+    <t>Pro 75 Power Cord</t>
+  </si>
+  <si>
+    <t>Pro_75_Power_Cord</t>
+  </si>
+  <si>
+    <t>378732c508db066a4824516a47ae78e7</t>
+  </si>
+  <si>
+    <t>f406e9f81f09361b999d6f9dec5f5429</t>
+  </si>
+  <si>
+    <t>Pro 75 Remote</t>
+  </si>
+  <si>
+    <t>Pro_75_Remote</t>
+  </si>
+  <si>
+    <t>66cc5195f0b87b5c82eeedc3b49be7d8</t>
+  </si>
+  <si>
+    <t>27c0d6e65ba06dc7147dc8c53a152387</t>
+  </si>
+  <si>
+    <t>S1 55 Package Box</t>
+  </si>
+  <si>
+    <t>S1_55_PBox</t>
+  </si>
+  <si>
+    <t>49cc24121a83c8a7aaca96a82f955630</t>
+  </si>
+  <si>
+    <t>1b196d893541d8675d433a11b38e3de3</t>
+  </si>
+  <si>
+    <t>V1 55 Package Box</t>
+  </si>
+  <si>
+    <t>V1_55_PBox</t>
+  </si>
+  <si>
+    <t>f0795776d2e3269c70eb856df7677db0</t>
+  </si>
+  <si>
+    <t>1e3bbd9a3ef4ced4a655db72a70fb5ad</t>
+  </si>
+  <si>
+    <t>V1 55 Power Cord</t>
+  </si>
+  <si>
+    <t>V1_55_Power_Cord</t>
+  </si>
+  <si>
+    <t>7e3e681a1392461f21e276230a70d5da</t>
+  </si>
+  <si>
+    <t>166f3eb6cf5dd8398ae99c5bdea4da7c</t>
+  </si>
+  <si>
+    <t>S1 55 Caster Wheels</t>
+  </si>
+  <si>
+    <t>S1_55_CWheels</t>
+  </si>
+  <si>
+    <t>cac3cd8dfa14ea3ca01c6537d428417c</t>
+  </si>
+  <si>
+    <t>4ede9300276397a1b049d0da8ce4a68e</t>
+  </si>
+  <si>
+    <t>S1 75 Caster Wheels</t>
+  </si>
+  <si>
+    <t>S1_75_CWheels</t>
+  </si>
+  <si>
+    <t>9c0020a5e0b6a4286592b95e6ff2fc4b</t>
+  </si>
+  <si>
+    <t>1739a510881c27973116a874bbcbd0eb</t>
+  </si>
+  <si>
+    <t>S1 55 White Stand Hardware Kit</t>
+  </si>
+  <si>
+    <t>S1_55_WStand_HWK</t>
+  </si>
+  <si>
+    <t>a4fd75ed92a769ca4b0c4c356512052c</t>
+  </si>
+  <si>
+    <t>5e82ff049b8644396b6886a5b6bf1257</t>
+  </si>
+  <si>
+    <t>S1 55 Red Stand Hardware Kit</t>
+  </si>
+  <si>
+    <t>S1_55_RStand_HWK</t>
+  </si>
+  <si>
+    <t>9cbd44c7b5cdabacc6deefa4557156f9</t>
+  </si>
+  <si>
+    <t>57bf83aac7355cb24c5b6f2a7c175c3b</t>
+  </si>
+  <si>
+    <t>S1 55 Green Stand Hardware Kit</t>
+  </si>
+  <si>
+    <t>S1_55_GStand_HWK</t>
+  </si>
+  <si>
+    <t>10cd1b7748ad34741fc8234fddff09bb</t>
+  </si>
+  <si>
+    <t>725ae2c68053634432bde59f95c2af72</t>
+  </si>
+  <si>
+    <t>S1 55 Blue Stand Hardware Kit</t>
+  </si>
+  <si>
+    <t>S1_55_BStand_HWK</t>
+  </si>
+  <si>
+    <t>8913ba9895cbc24eb6f61f1e5cf69db5</t>
+  </si>
+  <si>
+    <t>f08adfcf849b48691601e044325b70fa</t>
+  </si>
+  <si>
+    <t>S1 75 Stand Hardware Kit</t>
+  </si>
+  <si>
+    <t>S1_75_Stand_HWK</t>
+  </si>
+  <si>
+    <t>d45e9126b08ed97d518bec431a089bc6</t>
+  </si>
+  <si>
+    <t>09167af9c21ce4424a87ccbc9c65c270</t>
+  </si>
+  <si>
+    <t>S1 75 Stand Wall Mount</t>
+  </si>
+  <si>
+    <t>S1_75_Stand_WM</t>
+  </si>
+  <si>
+    <t>37ec5d0346ad83b42b0cd4eba0459c04</t>
+  </si>
+  <si>
+    <t>4b46af672ed4876c94c0ecbac0e0d8aa</t>
+  </si>
+  <si>
+    <t>S1 55 Stand Center Part</t>
+  </si>
+  <si>
+    <t>S1_55_Stand_CP</t>
+  </si>
+  <si>
+    <t>96b7561de17cc8e9a668e47e2f94921c</t>
+  </si>
+  <si>
+    <t>2c5e9812cd24831db4d239ba2b0f2fc1</t>
+  </si>
+  <si>
+    <t>S1 75 Stand Center Part</t>
+  </si>
+  <si>
+    <t>S1_75_Stand_CP</t>
+  </si>
+  <si>
+    <t>8bb51f969106d3efc3f6a8f5d6e12f4f</t>
+  </si>
+  <si>
+    <t>a53ce3084cb9c8bea9b0d8a6bbb7e38a</t>
+  </si>
+  <si>
+    <t>S1 55 White Stand Right Side Leg</t>
+  </si>
+  <si>
+    <t>S1_55_WStand_RSL</t>
+  </si>
+  <si>
+    <t>62d22d9fc40aba9d24a70c4a7f8ca346</t>
+  </si>
+  <si>
+    <t>27b72fe3b9f7f58d4838dc071a8b3289</t>
+  </si>
+  <si>
+    <t>S1 55 White Stand Left Side Leg</t>
+  </si>
+  <si>
+    <t>S1_55_WStand_LSL</t>
   </si>
 </sst>
 </file>
@@ -879,7 +1110,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,18 +1795,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="9" max="9" width="18.1818181818182" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1606,901 +1834,1653 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
         <v>399</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
         <v>399</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
         <v>399</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
         <v>399</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
         <v>599</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7">
+        <v>199</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7">
+      <c r="J8">
         <v>199</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8">
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
         <v>199</v>
       </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="K9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9">
+      <c r="J10">
         <v>199</v>
       </c>
-      <c r="J9">
+      <c r="K10">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10">
-        <v>199</v>
-      </c>
-      <c r="J10">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11">
         <v>5499</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2150</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12">
+        <v>799</v>
+      </c>
+      <c r="K12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12">
-        <v>799</v>
-      </c>
-      <c r="J12">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13">
-        <v>55</v>
-      </c>
-      <c r="J13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
         <v>65</v>
       </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14">
+      <c r="J14">
         <v>25</v>
       </c>
-      <c r="J14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15">
+        <v>3199</v>
+      </c>
+      <c r="K15">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
         <v>69</v>
       </c>
-      <c r="H15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15">
+      <c r="J16">
+        <v>1999</v>
+      </c>
+      <c r="K16">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17">
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18">
         <v>3199</v>
       </c>
-      <c r="J15">
+      <c r="K18">
         <v>1600</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16">
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19">
         <v>1999</v>
       </c>
-      <c r="J16">
+      <c r="K19">
         <v>1600</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17">
-        <v>40</v>
-      </c>
-      <c r="J17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20">
+        <v>5799</v>
+      </c>
+      <c r="K20">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21">
+        <v>5799</v>
+      </c>
+      <c r="K21">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22">
+        <v>4999</v>
+      </c>
+      <c r="K22">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23">
+        <v>4999</v>
+      </c>
+      <c r="K23">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24">
+        <v>6999</v>
+      </c>
+      <c r="K24">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25">
+        <v>6999</v>
+      </c>
+      <c r="K25">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26">
         <v>79</v>
       </c>
-      <c r="C18" t="s">
+      <c r="K26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27">
         <v>79</v>
       </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18">
-        <v>3199</v>
-      </c>
-      <c r="J18">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="K27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19">
-        <v>1999</v>
-      </c>
-      <c r="J19">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20">
-        <v>5799</v>
-      </c>
-      <c r="J20">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21">
-        <v>5799</v>
-      </c>
-      <c r="J21">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22">
-        <v>4999</v>
-      </c>
-      <c r="J22">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23">
-        <v>4999</v>
-      </c>
-      <c r="J23">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24">
-        <v>6999</v>
-      </c>
-      <c r="J24">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25">
-        <v>6999</v>
-      </c>
-      <c r="J25">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26">
+      <c r="K28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29">
         <v>79</v>
       </c>
-      <c r="J26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>117</v>
-      </c>
-      <c r="H27" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27">
-        <v>79</v>
-      </c>
-      <c r="J27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28">
-        <v>79</v>
-      </c>
-      <c r="J28">
+      <c r="K29">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29">
-        <v>79</v>
-      </c>
-      <c r="J29">
-        <v>50</v>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" t="s">
+        <v>149</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" t="s">
+        <v>157</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" t="s">
+        <v>161</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>166</v>
+      </c>
+      <c r="I39" t="s">
+        <v>165</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" t="s">
+        <v>173</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>178</v>
+      </c>
+      <c r="I42" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>182</v>
+      </c>
+      <c r="I43" t="s">
+        <v>181</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>186</v>
+      </c>
+      <c r="I44" t="s">
+        <v>185</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>198</v>
+      </c>
+      <c r="I47" t="s">
+        <v>197</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>202</v>
+      </c>
+      <c r="I48" t="s">
+        <v>201</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
